--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ltb-Tnfrsf1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Tnfrsf1a</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5371426666666667</v>
+        <v>0.374963</v>
       </c>
       <c r="H2">
-        <v>1.611428</v>
+        <v>1.124889</v>
       </c>
       <c r="I2">
-        <v>0.08294355669112122</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="J2">
-        <v>0.08294355669112123</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N2">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O2">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P2">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q2">
-        <v>25.53270101822844</v>
+        <v>19.274212590036</v>
       </c>
       <c r="R2">
-        <v>229.794309164056</v>
+        <v>173.467913310324</v>
       </c>
       <c r="S2">
-        <v>0.01906124153615012</v>
+        <v>0.01103393975362096</v>
       </c>
       <c r="T2">
-        <v>0.01906124153615013</v>
+        <v>0.01103393975362096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5371426666666667</v>
+        <v>0.374963</v>
       </c>
       <c r="H3">
-        <v>1.611428</v>
+        <v>1.124889</v>
       </c>
       <c r="I3">
-        <v>0.08294355669112122</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="J3">
-        <v>0.08294355669112123</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>155.929707</v>
       </c>
       <c r="O3">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P3">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q3">
-        <v>27.918832876844</v>
+        <v>19.489290241947</v>
       </c>
       <c r="R3">
-        <v>251.269495891596</v>
+        <v>175.403612177523</v>
       </c>
       <c r="S3">
-        <v>0.0208425899200012</v>
+        <v>0.01115706560597163</v>
       </c>
       <c r="T3">
-        <v>0.0208425899200012</v>
+        <v>0.01115706560597163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5371426666666667</v>
+        <v>0.374963</v>
       </c>
       <c r="H4">
-        <v>1.611428</v>
+        <v>1.124889</v>
       </c>
       <c r="I4">
-        <v>0.08294355669112122</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="J4">
-        <v>0.08294355669112123</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N4">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O4">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P4">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q4">
-        <v>23.57419273368755</v>
+        <v>22.192221526411</v>
       </c>
       <c r="R4">
-        <v>212.167734603188</v>
+        <v>199.729993737699</v>
       </c>
       <c r="S4">
-        <v>0.01759913224205182</v>
+        <v>0.01270441706386573</v>
       </c>
       <c r="T4">
-        <v>0.01759913224205183</v>
+        <v>0.01270441706386573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5371426666666667</v>
+        <v>0.374963</v>
       </c>
       <c r="H5">
-        <v>1.611428</v>
+        <v>1.124889</v>
       </c>
       <c r="I5">
-        <v>0.08294355669112122</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="J5">
-        <v>0.08294355669112123</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N5">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O5">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P5">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q5">
-        <v>4.560812851261334</v>
+        <v>3.268320993841333</v>
       </c>
       <c r="R5">
-        <v>41.047315661352</v>
+        <v>29.414888944572</v>
       </c>
       <c r="S5">
-        <v>0.003404839750287479</v>
+        <v>0.00187102102216008</v>
       </c>
       <c r="T5">
-        <v>0.003404839750287479</v>
+        <v>0.00187102102216008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5371426666666667</v>
+        <v>0.374963</v>
       </c>
       <c r="H6">
-        <v>1.611428</v>
+        <v>1.124889</v>
       </c>
       <c r="I6">
-        <v>0.08294355669112122</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="J6">
-        <v>0.08294355669112123</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N6">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O6">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P6">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q6">
-        <v>29.51708566246845</v>
+        <v>13.55095971504167</v>
       </c>
       <c r="R6">
-        <v>265.6537709622161</v>
+        <v>121.958637435375</v>
       </c>
       <c r="S6">
-        <v>0.02203575324263059</v>
+        <v>0.007757539894356591</v>
       </c>
       <c r="T6">
-        <v>0.02203575324263059</v>
+        <v>0.007757539894356591</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.401303</v>
       </c>
       <c r="I7">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="J7">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N7">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O7">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P7">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q7">
-        <v>6.358552486811778</v>
+        <v>6.876055624172</v>
       </c>
       <c r="R7">
-        <v>57.22697238130601</v>
+        <v>61.884500617548</v>
       </c>
       <c r="S7">
-        <v>0.004746928446186645</v>
+        <v>0.003936346719496191</v>
       </c>
       <c r="T7">
-        <v>0.004746928446186645</v>
+        <v>0.003936346719496191</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.401303</v>
       </c>
       <c r="I8">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="J8">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>155.929707</v>
       </c>
       <c r="O8">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P8">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q8">
         <v>6.952784356469001</v>
@@ -948,10 +948,10 @@
         <v>62.57505920822101</v>
       </c>
       <c r="S8">
-        <v>0.005190547677380709</v>
+        <v>0.0039802717413658</v>
       </c>
       <c r="T8">
-        <v>0.005190547677380709</v>
+        <v>0.0039802717413658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.401303</v>
       </c>
       <c r="I9">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="J9">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N9">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O9">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P9">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q9">
-        <v>5.870814126729222</v>
+        <v>7.917052327130334</v>
       </c>
       <c r="R9">
-        <v>52.837327140563</v>
+        <v>71.253470944173</v>
       </c>
       <c r="S9">
-        <v>0.004382811125369625</v>
+        <v>0.004532287791044726</v>
       </c>
       <c r="T9">
-        <v>0.004382811125369625</v>
+        <v>0.004532287791044725</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>0.401303</v>
       </c>
       <c r="I10">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="J10">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N10">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O10">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P10">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q10">
-        <v>1.135804938011334</v>
+        <v>1.165970171093778</v>
       </c>
       <c r="R10">
-        <v>10.222244442102</v>
+        <v>10.493731539844</v>
       </c>
       <c r="S10">
-        <v>0.0008479264393504496</v>
+        <v>0.0006674848356201426</v>
       </c>
       <c r="T10">
-        <v>0.0008479264393504496</v>
+        <v>0.0006674848356201425</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>0.401303</v>
       </c>
       <c r="I11">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="J11">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N11">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O11">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P11">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q11">
-        <v>7.350806258551779</v>
+        <v>4.834291015847222</v>
       </c>
       <c r="R11">
-        <v>66.15725632696602</v>
+        <v>43.508619142625</v>
       </c>
       <c r="S11">
-        <v>0.005487687866617301</v>
+        <v>0.002767494421427344</v>
       </c>
       <c r="T11">
-        <v>0.005487687866617301</v>
+        <v>0.002767494421427344</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.280335</v>
+        <v>4.070090666666666</v>
       </c>
       <c r="H12">
-        <v>6.841005</v>
+        <v>12.210272</v>
       </c>
       <c r="I12">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="J12">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N12">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O12">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P12">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q12">
-        <v>108.3941295107233</v>
+        <v>209.214756576128</v>
       </c>
       <c r="R12">
-        <v>975.54716559651</v>
+        <v>1882.932809185152</v>
       </c>
       <c r="S12">
-        <v>0.08092080356988378</v>
+        <v>0.1197695111458329</v>
       </c>
       <c r="T12">
-        <v>0.08092080356988378</v>
+        <v>0.1197695111458329</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.280335</v>
+        <v>4.070090666666666</v>
       </c>
       <c r="H13">
-        <v>6.841005</v>
+        <v>12.210272</v>
       </c>
       <c r="I13">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="J13">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>155.929707</v>
       </c>
       <c r="O13">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P13">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q13">
-        <v>118.523989470615</v>
+        <v>211.549348372256</v>
       </c>
       <c r="R13">
-        <v>1066.715905235535</v>
+        <v>1903.944135350304</v>
       </c>
       <c r="S13">
-        <v>0.08848317259950665</v>
+        <v>0.1211059986992125</v>
       </c>
       <c r="T13">
-        <v>0.08848317259950665</v>
+        <v>0.1211059986992125</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.280335</v>
+        <v>4.070090666666666</v>
       </c>
       <c r="H14">
-        <v>6.841005</v>
+        <v>12.210272</v>
       </c>
       <c r="I14">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="J14">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N14">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O14">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P14">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q14">
-        <v>100.0796624870117</v>
+        <v>240.8887109054613</v>
       </c>
       <c r="R14">
-        <v>900.7169623831051</v>
+        <v>2167.998398149152</v>
       </c>
       <c r="S14">
-        <v>0.07471370217194795</v>
+        <v>0.1379019511713973</v>
       </c>
       <c r="T14">
-        <v>0.07471370217194795</v>
+        <v>0.1379019511713973</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.280335</v>
+        <v>4.070090666666666</v>
       </c>
       <c r="H15">
-        <v>6.841005</v>
+        <v>12.210272</v>
       </c>
       <c r="I15">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="J15">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N15">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O15">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P15">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q15">
-        <v>19.36204628413</v>
+        <v>35.47646773869511</v>
       </c>
       <c r="R15">
-        <v>174.25841655717</v>
+        <v>319.2882096482559</v>
       </c>
       <c r="S15">
-        <v>0.01445458671185768</v>
+        <v>0.02030927104655891</v>
       </c>
       <c r="T15">
-        <v>0.01445458671185768</v>
+        <v>0.02030927104655891</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.280335</v>
+        <v>4.070090666666666</v>
       </c>
       <c r="H16">
-        <v>6.841005</v>
+        <v>12.210272</v>
       </c>
       <c r="I16">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="J16">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N16">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O16">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P16">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q16">
-        <v>125.3090616536234</v>
+        <v>147.0908720608889</v>
       </c>
       <c r="R16">
-        <v>1127.78155488261</v>
+        <v>1323.817848548</v>
       </c>
       <c r="S16">
-        <v>0.0935485160439077</v>
+        <v>0.08420535018205819</v>
       </c>
       <c r="T16">
-        <v>0.0935485160439077</v>
+        <v>0.08420535018205819</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>3.524757</v>
+        <v>0.013544</v>
       </c>
       <c r="H17">
-        <v>10.574271</v>
+        <v>0.040632</v>
       </c>
       <c r="I17">
-        <v>0.5442797606568702</v>
+        <v>0.001608246227912144</v>
       </c>
       <c r="J17">
-        <v>0.5442797606568702</v>
+        <v>0.001608246227912144</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N17">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O17">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P17">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q17">
-        <v>167.546859014938</v>
+        <v>0.696201852768</v>
       </c>
       <c r="R17">
-        <v>1507.921731134442</v>
+        <v>6.265816674912</v>
       </c>
       <c r="S17">
-        <v>0.125080818751882</v>
+        <v>0.0003985558042341304</v>
       </c>
       <c r="T17">
-        <v>0.125080818751882</v>
+        <v>0.0003985558042341304</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>3.524757</v>
+        <v>0.013544</v>
       </c>
       <c r="H18">
-        <v>10.574271</v>
+        <v>0.040632</v>
       </c>
       <c r="I18">
-        <v>0.5442797606568702</v>
+        <v>0.001608246227912144</v>
       </c>
       <c r="J18">
-        <v>0.5442797606568702</v>
+        <v>0.001608246227912144</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>155.929707</v>
       </c>
       <c r="O18">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P18">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q18">
-        <v>183.204775418733</v>
+        <v>0.7039706505360001</v>
       </c>
       <c r="R18">
-        <v>1648.842978768597</v>
+        <v>6.335735854824001</v>
       </c>
       <c r="S18">
-        <v>0.1367701157954069</v>
+        <v>0.0004030032204971685</v>
       </c>
       <c r="T18">
-        <v>0.1367701157954069</v>
+        <v>0.0004030032204971684</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>3.524757</v>
+        <v>0.013544</v>
       </c>
       <c r="H19">
-        <v>10.574271</v>
+        <v>0.040632</v>
       </c>
       <c r="I19">
-        <v>0.5442797606568702</v>
+        <v>0.001608246227912144</v>
       </c>
       <c r="J19">
-        <v>0.5442797606568702</v>
+        <v>0.001608246227912144</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N19">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O19">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P19">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q19">
-        <v>154.695029856899</v>
+        <v>0.8016029537680001</v>
       </c>
       <c r="R19">
-        <v>1392.255268712091</v>
+        <v>7.214426583912001</v>
       </c>
       <c r="S19">
-        <v>0.1154863845559923</v>
+        <v>0.0004588949435357556</v>
       </c>
       <c r="T19">
-        <v>0.1154863845559923</v>
+        <v>0.0004588949435357554</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>3.524757</v>
+        <v>0.013544</v>
       </c>
       <c r="H20">
-        <v>10.574271</v>
+        <v>0.040632</v>
       </c>
       <c r="I20">
-        <v>0.5442797606568702</v>
+        <v>0.001608246227912144</v>
       </c>
       <c r="J20">
-        <v>0.5442797606568702</v>
+        <v>0.001608246227912144</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N20">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O20">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P20">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q20">
-        <v>29.928281666646</v>
+        <v>0.1180546868373333</v>
       </c>
       <c r="R20">
-        <v>269.354534999814</v>
+        <v>1.062492181536</v>
       </c>
       <c r="S20">
-        <v>0.02234272845644492</v>
+        <v>6.758295811623048E-05</v>
       </c>
       <c r="T20">
-        <v>0.02234272845644492</v>
+        <v>6.758295811623046E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.013544</v>
+      </c>
+      <c r="H21">
+        <v>0.040632</v>
+      </c>
+      <c r="I21">
+        <v>0.001608246227912144</v>
+      </c>
+      <c r="J21">
+        <v>0.001608246227912144</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>36.13945833333333</v>
+      </c>
+      <c r="N21">
+        <v>108.418375</v>
+      </c>
+      <c r="O21">
+        <v>0.1742328361575779</v>
+      </c>
+      <c r="P21">
+        <v>0.1742328361575779</v>
+      </c>
+      <c r="Q21">
+        <v>0.4894728236666667</v>
+      </c>
+      <c r="R21">
+        <v>4.405255413</v>
+      </c>
+      <c r="S21">
+        <v>0.0002802093015288593</v>
+      </c>
+      <c r="T21">
+        <v>0.0002802093015288593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.829230666666666</v>
+      </c>
+      <c r="H22">
+        <v>11.487692</v>
+      </c>
+      <c r="I22">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="J22">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>51.402972</v>
+      </c>
+      <c r="N22">
+        <v>154.208916</v>
+      </c>
+      <c r="O22">
+        <v>0.2478201393026385</v>
+      </c>
+      <c r="P22">
+        <v>0.2478201393026385</v>
+      </c>
+      <c r="Q22">
+        <v>196.833836740208</v>
+      </c>
+      <c r="R22">
+        <v>1771.504530661872</v>
+      </c>
+      <c r="S22">
+        <v>0.1126817858794543</v>
+      </c>
+      <c r="T22">
+        <v>0.1126817858794543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.829230666666666</v>
+      </c>
+      <c r="H23">
+        <v>11.487692</v>
+      </c>
+      <c r="I23">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="J23">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>51.976569</v>
+      </c>
+      <c r="N23">
+        <v>155.929707</v>
+      </c>
+      <c r="O23">
+        <v>0.2505855219821376</v>
+      </c>
+      <c r="P23">
+        <v>0.2505855219821376</v>
+      </c>
+      <c r="Q23">
+        <v>199.030271962916</v>
+      </c>
+      <c r="R23">
+        <v>1791.272447666244</v>
+      </c>
+      <c r="S23">
+        <v>0.1139391827150905</v>
+      </c>
+      <c r="T23">
+        <v>0.1139391827150905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.829230666666666</v>
+      </c>
+      <c r="H24">
+        <v>11.487692</v>
+      </c>
+      <c r="I24">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="J24">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>59.18509700000001</v>
+      </c>
+      <c r="N24">
+        <v>177.555291</v>
+      </c>
+      <c r="O24">
+        <v>0.2853387345614992</v>
+      </c>
+      <c r="P24">
+        <v>0.2853387345614991</v>
+      </c>
+      <c r="Q24">
+        <v>226.6333884420413</v>
+      </c>
+      <c r="R24">
+        <v>2039.700495978372</v>
+      </c>
+      <c r="S24">
+        <v>0.1297411835916556</v>
+      </c>
+      <c r="T24">
+        <v>0.1297411835916556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3.524757</v>
-      </c>
-      <c r="H21">
-        <v>10.574271</v>
-      </c>
-      <c r="I21">
-        <v>0.5442797606568702</v>
-      </c>
-      <c r="J21">
-        <v>0.5442797606568702</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>54.95204066666668</v>
-      </c>
-      <c r="N21">
-        <v>164.856122</v>
-      </c>
-      <c r="O21">
-        <v>0.2656716702502996</v>
-      </c>
-      <c r="P21">
-        <v>0.2656716702502996</v>
-      </c>
-      <c r="Q21">
-        <v>193.692590004118</v>
-      </c>
-      <c r="R21">
-        <v>1743.233310037062</v>
-      </c>
-      <c r="S21">
-        <v>0.144599713097144</v>
-      </c>
-      <c r="T21">
-        <v>0.144599713097144</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.829230666666666</v>
+      </c>
+      <c r="H25">
+        <v>11.487692</v>
+      </c>
+      <c r="I25">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="J25">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.716382666666666</v>
+      </c>
+      <c r="N25">
+        <v>26.149148</v>
+      </c>
+      <c r="O25">
+        <v>0.04202276799614693</v>
+      </c>
+      <c r="P25">
+        <v>0.04202276799614692</v>
+      </c>
+      <c r="Q25">
+        <v>33.37703980960177</v>
+      </c>
+      <c r="R25">
+        <v>300.3933582864159</v>
+      </c>
+      <c r="S25">
+        <v>0.01910740813369157</v>
+      </c>
+      <c r="T25">
+        <v>0.01910740813369156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.829230666666666</v>
+      </c>
+      <c r="H26">
+        <v>11.487692</v>
+      </c>
+      <c r="I26">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="J26">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>36.13945833333333</v>
+      </c>
+      <c r="N26">
+        <v>108.418375</v>
+      </c>
+      <c r="O26">
+        <v>0.1742328361575779</v>
+      </c>
+      <c r="P26">
+        <v>0.1742328361575779</v>
+      </c>
+      <c r="Q26">
+        <v>138.3863221267222</v>
+      </c>
+      <c r="R26">
+        <v>1245.4768991405</v>
+      </c>
+      <c r="S26">
+        <v>0.07922224235820695</v>
+      </c>
+      <c r="T26">
+        <v>0.07922224235820695</v>
       </c>
     </row>
   </sheetData>
